--- a/biology/Médecine/Nœud_lymphatique_prélaryngé/Nœud_lymphatique_prélaryngé.xlsx
+++ b/biology/Médecine/Nœud_lymphatique_prélaryngé/Nœud_lymphatique_prélaryngé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C5%93ud_lymphatique_pr%C3%A9laryng%C3%A9</t>
+          <t>Nœud_lymphatique_prélaryngé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nœuds lymphatiques prélaryngés (ou ganglions lymphatiques prélaryngés ou ganglions lymphatiques cricoïdiens ou ganglions lymphatiques intercricothyroïdiens) sont des ganglions lymphatiques situés en avant du larynx devant le ligament crico-thyroïdien et entre les deux muscles crico-thyroïdiens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C5%93ud_lymphatique_pr%C3%A9laryng%C3%A9</t>
+          <t>Nœud_lymphatique_prélaryngé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un de ces nœuds est le ganglion lymphatique delphien situé au-dessus de l'isthme de la glande thyroïde, qui peut être retiré lors d'une thyroïdectomie en tant que ganglion lymphatique sentinelle permettant de diagnostiquer les risques de propagation d'un cancer[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un de ces nœuds est le ganglion lymphatique delphien situé au-dessus de l'isthme de la glande thyroïde, qui peut être retiré lors d'une thyroïdectomie en tant que ganglion lymphatique sentinelle permettant de diagnostiquer les risques de propagation d'un cancer.
 </t>
         </is>
       </c>
